--- a/가수저장링크_1223.xlsx
+++ b/가수저장링크_1223.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanseokhyeon/PycharmProjects/youtube_music_downloader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8BBF97-D377-3E46-8B6F-06CA54BE1A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FACC5-81D5-BB42-B051-C3409CCCF663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="가수저장링크" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="683">
   <si>
     <t>가수</t>
   </si>
@@ -2027,6 +2027,326 @@
   </si>
   <si>
     <t>https://youtu.be/N9QhA22XGzE</t>
+  </si>
+  <si>
+    <t>eurythmics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet dream</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/qeMFqkcPYcg</t>
+  </si>
+  <si>
+    <t>love is stranger</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/o6f593X6rv8</t>
+  </si>
+  <si>
+    <t>yazoo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>don" go</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/tLTGs4fqxBk</t>
+  </si>
+  <si>
+    <t>only you</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/tqlYhhREogE</t>
+  </si>
+  <si>
+    <t>딕훼밀리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰구름 먹구름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/sfKeLzq_cEw</t>
+  </si>
+  <si>
+    <t>deep purple</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>april</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/yV8e_RkpiNA</t>
+  </si>
+  <si>
+    <t>soldier of fortune</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/vSR0EnFP8Zw</t>
+  </si>
+  <si>
+    <t>child in time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ybQnFhTr2I8</t>
+  </si>
+  <si>
+    <t>파헬벨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>canon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/_lOzmCPIuuU</t>
+  </si>
+  <si>
+    <t>김광석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무아픈사랑은 사랑이 아니었음을</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/cGD4d5C9QJM</t>
+  </si>
+  <si>
+    <t>서른 즈음에</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/DMw5RKcbKVY</t>
+  </si>
+  <si>
+    <t>이등병의 편지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/YrTUpEIVFNk</t>
+  </si>
+  <si>
+    <t>사랑했지만</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/xhmKg2eFSlw</t>
+  </si>
+  <si>
+    <t>바람이 불어 오는곳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/qJ8OUxq7svA</t>
+  </si>
+  <si>
+    <t>먼지가 되어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/nFXTf9PodCw</t>
+  </si>
+  <si>
+    <t>변해가네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/s9YjNbEox8c</t>
+  </si>
+  <si>
+    <t>흐린가을하늘에 편지를 써</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/bod8kCNwSdI</t>
+  </si>
+  <si>
+    <t>엣추억</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/-mTKBKHzc1w</t>
+  </si>
+  <si>
+    <t>작별</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/y_JuFIADfh4</t>
+  </si>
+  <si>
+    <t>밤눈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/DTPQ-SceP-0</t>
+  </si>
+  <si>
+    <t>beatles</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>let it be</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/QDYfEBY9NM4</t>
+  </si>
+  <si>
+    <t>hey jude</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/bkApuQWCPdM</t>
+  </si>
+  <si>
+    <t>obladi ovlada</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/_Paqe2-BCYM</t>
+  </si>
+  <si>
+    <t>imagine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/L6svOHFSAH8</t>
+  </si>
+  <si>
+    <t>oh! Darling</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/9BznFjbcBVs</t>
+  </si>
+  <si>
+    <t>come together</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/45cYwDMibGo</t>
+  </si>
+  <si>
+    <t>don’t let me down</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/NCtzkaL2t_Y</t>
+  </si>
+  <si>
+    <t>santaesmeralda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>don’t let be misunderstood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/8FMdaDEmcDg</t>
+  </si>
+  <si>
+    <t>이영화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실비오는 소리에</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/c5L0VDgFRj8</t>
+  </si>
+  <si>
+    <t>저 높은곳을 향하여</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/igPqe3cyG50</t>
+  </si>
+  <si>
+    <t>J.D.Souther</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>You"re only lonely</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/quglprlSQ8k</t>
+  </si>
+  <si>
+    <t>윤항기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>별이 빛나는 밤에</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ZiF4WiWeAAc</t>
+  </si>
+  <si>
+    <t>나는 어덯하라구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/pu-oVBKtpYc</t>
+  </si>
+  <si>
+    <t>장미빛 스카프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/1GTOP_nE36g</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qnoTTp1y7sA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8t5eoca5NJg</t>
+  </si>
+  <si>
+    <t>멀어져간 사람</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/x0Pr1Tmzqls</t>
+  </si>
+  <si>
+    <t>파도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/6kMvEYGF68E</t>
+  </si>
+  <si>
+    <t>님 떠나갈 사람</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이필원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/ybe0O6yxbNY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jGSGa1r8NyA</t>
   </si>
 </sst>
 </file>
@@ -3003,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:C259"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5790,6 +6110,479 @@
         <v>592</v>
       </c>
     </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>593</v>
+      </c>
+      <c r="B261" t="s">
+        <v>594</v>
+      </c>
+      <c r="C261" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>593</v>
+      </c>
+      <c r="B262" t="s">
+        <v>596</v>
+      </c>
+      <c r="C262" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>598</v>
+      </c>
+      <c r="B263" t="s">
+        <v>599</v>
+      </c>
+      <c r="C263" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>598</v>
+      </c>
+      <c r="B264" t="s">
+        <v>601</v>
+      </c>
+      <c r="C264" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>603</v>
+      </c>
+      <c r="B265" t="s">
+        <v>604</v>
+      </c>
+      <c r="C265" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>606</v>
+      </c>
+      <c r="B266" t="s">
+        <v>607</v>
+      </c>
+      <c r="C266" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>606</v>
+      </c>
+      <c r="B267" t="s">
+        <v>609</v>
+      </c>
+      <c r="C267" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>606</v>
+      </c>
+      <c r="B268" t="s">
+        <v>611</v>
+      </c>
+      <c r="C268" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>613</v>
+      </c>
+      <c r="B269" t="s">
+        <v>614</v>
+      </c>
+      <c r="C269" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>616</v>
+      </c>
+      <c r="B270" t="s">
+        <v>617</v>
+      </c>
+      <c r="C270" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>616</v>
+      </c>
+      <c r="B271" t="s">
+        <v>619</v>
+      </c>
+      <c r="C271" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>616</v>
+      </c>
+      <c r="B272" t="s">
+        <v>621</v>
+      </c>
+      <c r="C272" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>616</v>
+      </c>
+      <c r="B273" t="s">
+        <v>623</v>
+      </c>
+      <c r="C273" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>616</v>
+      </c>
+      <c r="B274" t="s">
+        <v>625</v>
+      </c>
+      <c r="C274" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>616</v>
+      </c>
+      <c r="B275" t="s">
+        <v>627</v>
+      </c>
+      <c r="C275" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>616</v>
+      </c>
+      <c r="B276" t="s">
+        <v>629</v>
+      </c>
+      <c r="C276" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>616</v>
+      </c>
+      <c r="B277" t="s">
+        <v>631</v>
+      </c>
+      <c r="C277" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>603</v>
+      </c>
+      <c r="B278" t="s">
+        <v>633</v>
+      </c>
+      <c r="C278" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>603</v>
+      </c>
+      <c r="B279" t="s">
+        <v>635</v>
+      </c>
+      <c r="C279" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>326</v>
+      </c>
+      <c r="B280" t="s">
+        <v>637</v>
+      </c>
+      <c r="C280" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>639</v>
+      </c>
+      <c r="B281" t="s">
+        <v>640</v>
+      </c>
+      <c r="C281" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>639</v>
+      </c>
+      <c r="B282" t="s">
+        <v>642</v>
+      </c>
+      <c r="C282" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>639</v>
+      </c>
+      <c r="B283" t="s">
+        <v>644</v>
+      </c>
+      <c r="C283" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>639</v>
+      </c>
+      <c r="B284" t="s">
+        <v>646</v>
+      </c>
+      <c r="C284" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>639</v>
+      </c>
+      <c r="B285" t="s">
+        <v>648</v>
+      </c>
+      <c r="C285" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>639</v>
+      </c>
+      <c r="B286" t="s">
+        <v>650</v>
+      </c>
+      <c r="C286" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>639</v>
+      </c>
+      <c r="B287" t="s">
+        <v>652</v>
+      </c>
+      <c r="C287" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>654</v>
+      </c>
+      <c r="B288" t="s">
+        <v>655</v>
+      </c>
+      <c r="C288" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>657</v>
+      </c>
+      <c r="B289" t="s">
+        <v>658</v>
+      </c>
+      <c r="C289" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>657</v>
+      </c>
+      <c r="B290" t="s">
+        <v>660</v>
+      </c>
+      <c r="C290" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>662</v>
+      </c>
+      <c r="B291" t="s">
+        <v>663</v>
+      </c>
+      <c r="C291" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>665</v>
+      </c>
+      <c r="B292" t="s">
+        <v>666</v>
+      </c>
+      <c r="C292" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>665</v>
+      </c>
+      <c r="B293" t="s">
+        <v>668</v>
+      </c>
+      <c r="C293" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>665</v>
+      </c>
+      <c r="B294" t="s">
+        <v>670</v>
+      </c>
+      <c r="C294" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>307</v>
+      </c>
+      <c r="B295" t="s">
+        <v>308</v>
+      </c>
+      <c r="C295" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>307</v>
+      </c>
+      <c r="B296" t="s">
+        <v>310</v>
+      </c>
+      <c r="C296" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>307</v>
+      </c>
+      <c r="B297" t="s">
+        <v>311</v>
+      </c>
+      <c r="C297" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>307</v>
+      </c>
+      <c r="B298" t="s">
+        <v>674</v>
+      </c>
+      <c r="C298" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>307</v>
+      </c>
+      <c r="B299" t="s">
+        <v>314</v>
+      </c>
+      <c r="C299" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" t="s">
+        <v>676</v>
+      </c>
+      <c r="C300" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301" t="s">
+        <v>678</v>
+      </c>
+      <c r="C301" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>679</v>
+      </c>
+      <c r="B302" t="s">
+        <v>680</v>
+      </c>
+      <c r="C302" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>679</v>
+      </c>
+      <c r="B303" t="s">
+        <v>314</v>
+      </c>
+      <c r="C303" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
